--- a/Titanic EDA Lab.xlsx
+++ b/Titanic EDA Lab.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josmol/Desktop/MS/CSC 570 Data Science Essentials/Lab /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josmol/Desktop/MS/CSC 570 Data Science Essentials/Lab /csc570r/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="EDA" sheetId="1" r:id="rId1"/>
     <sheet name="Histograms" sheetId="2" r:id="rId2"/>
+    <sheet name="Extra" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Age">Histograms!$A$70:$G$85</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Missing Values</t>
   </si>
@@ -143,13 +144,49 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Check if class of the passenger influences the survival rate -</t>
+  </si>
+  <si>
+    <t>clsOneSvdRt = (df[(df.Pclass==1)&amp;(df.Survived==1)].Survived.count()) * 100 / (df[df.Pclass==1].Survived.count())</t>
+  </si>
+  <si>
+    <t>clsTwoSvdRt = (df[(df.Pclass==2)&amp;(df.Survived==1)].Survived.count()) * 100 / (df[df.Pclass==1].Survived.count())</t>
+  </si>
+  <si>
+    <t>clsThreeSvdRt = (df[(df.Pclass==3)&amp;(df.Survived==1)].Survived.count()) * 100 / (df[df.Pclass==1].Survived.count())</t>
+  </si>
+  <si>
+    <t>Inference - there is no direct correlation found between class and survival, as the survival rate of class 3 passengers &gt; class 2</t>
+  </si>
+  <si>
+    <t>This could be due to a skewed distribution of women and children across classes</t>
+  </si>
+  <si>
+    <t>Find the distribution of women and children across classes -</t>
+  </si>
+  <si>
+    <t>clsOnePrty = df[(df.Pclass==1)&amp;(df.Age &lt;= 15)&amp;(df.Sex == 'female')].Survived.count()</t>
+  </si>
+  <si>
+    <t>clsTwoPrty = df[(df.Pclass==2)&amp;(df.Age &lt;= 15)&amp;(df.Sex == 'female')].Survived.count()</t>
+  </si>
+  <si>
+    <t>clsThreePrty = df[(df.Pclass==3)&amp;(df.Age &lt;= 15)&amp;(df.Sex == 'female')].Survived.count()</t>
+  </si>
+  <si>
+    <t>Inference - there is a bigger population of women and children in class 3, which is causing the survival rate to shoot up.</t>
+  </si>
+  <si>
+    <t>If one were to deduce the survival chances, the above two variables will play a major role.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,16 +200,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -182,15 +209,45 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -239,26 +296,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1032,47 +1093,48 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1082,19 +1144,19 @@
       <c r="G2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10">
@@ -1106,81 +1168,81 @@
       <c r="G3" s="10">
         <v>257.35384199999999</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="10">
@@ -1192,81 +1254,81 @@
       <c r="G7" s="10">
         <v>14.526497332333999</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="10">
@@ -1278,47 +1340,47 @@
       <c r="G11" s="10">
         <v>49.693429000000002</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1368,7 +1430,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1425,4 +1487,101 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="103.5" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>